--- a/本体/宽带相控阵雷达知识抽取 .xlsx
+++ b/本体/宽带相控阵雷达知识抽取 .xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TIAN/实验室/雷达抽取/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" tabRatio="942" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="22020" windowHeight="13620" tabRatio="942"/>
   </bookViews>
   <sheets>
     <sheet name="步骤1-A概念提取（按章节）" sheetId="1" r:id="rId1"/>
@@ -22,9 +27,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'步骤4-B datatypeProperties'!$A$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -2538,8 +2546,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2916,25 +2924,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H174"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G131" sqref="A2:G131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="2" width="31.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.08203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="3" style="9" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="9" customWidth="1"/>
     <col min="5" max="5" width="29.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.25" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="7"/>
+    <col min="6" max="6" width="13.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="7"/>
     <col min="8" max="8" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>235</v>
       </c>
@@ -2960,7 +2968,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>414</v>
       </c>
@@ -2968,7 +2976,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>415</v>
@@ -2976,7 +2984,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>416</v>
@@ -2984,7 +2992,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" t="s">
         <v>417</v>
@@ -2992,7 +3000,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>419</v>
       </c>
@@ -3003,7 +3011,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>424</v>
@@ -3014,7 +3022,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>425</v>
@@ -3025,7 +3033,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>426</v>
@@ -3036,7 +3044,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>427</v>
@@ -3047,7 +3055,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11"/>
       <c r="C11" s="8" t="s">
@@ -3055,7 +3063,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12"/>
       <c r="C12" s="8" t="s">
@@ -3063,7 +3071,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13"/>
       <c r="C13" s="8" t="s">
@@ -3071,7 +3079,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14"/>
       <c r="C14" s="8" t="s">
@@ -3079,7 +3087,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>435</v>
       </c>
@@ -3089,7 +3097,7 @@
       <c r="E15"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" t="s">
         <v>436</v>
@@ -3099,7 +3107,7 @@
       <c r="E16"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" s="8"/>
@@ -3111,7 +3119,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18" s="8"/>
@@ -3123,7 +3131,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" s="8"/>
@@ -3135,7 +3143,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20"/>
       <c r="C20" s="8"/>
@@ -3147,7 +3155,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21"/>
       <c r="C21" s="8"/>
@@ -3159,7 +3167,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22"/>
       <c r="C22" s="1"/>
@@ -3171,7 +3179,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="9" t="s">
         <v>443</v>
@@ -3179,7 +3187,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24"/>
       <c r="C24" s="1" t="s">
@@ -3190,7 +3198,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25"/>
       <c r="C25" s="1" t="s">
@@ -3201,7 +3209,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26"/>
       <c r="C26" s="1" t="s">
@@ -3212,7 +3220,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
         <v>447</v>
@@ -3223,7 +3231,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28"/>
       <c r="C28" s="1" t="s">
@@ -3234,7 +3242,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29"/>
       <c r="C29" s="1" t="s">
@@ -3245,7 +3253,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30"/>
       <c r="C30" s="1" t="s">
@@ -3256,7 +3264,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31"/>
       <c r="C31" s="1" t="s">
@@ -3267,7 +3275,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32"/>
       <c r="C32" s="9" t="s">
@@ -3278,7 +3286,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33"/>
       <c r="C33" s="1" t="s">
@@ -3289,7 +3297,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34"/>
       <c r="C34" s="1" t="s">
@@ -3300,7 +3308,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35"/>
       <c r="C35" s="1" t="s">
@@ -3311,7 +3319,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>473</v>
       </c>
@@ -3320,7 +3328,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" t="s">
         <v>474</v>
@@ -3328,7 +3336,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" t="s">
         <v>477</v>
@@ -3336,7 +3344,7 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39"/>
       <c r="C39" s="8"/>
@@ -3348,7 +3356,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40"/>
       <c r="C40" s="8"/>
@@ -3360,7 +3368,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" t="s">
         <v>484</v>
@@ -3368,7 +3376,7 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:7" s="9" customFormat="1">
+    <row r="42" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42"/>
       <c r="C42" s="8"/>
@@ -3380,7 +3388,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43"/>
       <c r="C43" s="8"/>
@@ -3392,7 +3400,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>487</v>
       </c>
@@ -3400,7 +3408,7 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" t="s">
         <v>488</v>
@@ -3408,7 +3416,7 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" t="s">
         <v>489</v>
@@ -3416,7 +3424,7 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>490</v>
@@ -3424,7 +3432,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48"/>
       <c r="C48" s="1"/>
@@ -3433,7 +3441,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>492</v>
       </c>
@@ -3441,7 +3449,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
         <v>504</v>
@@ -3452,7 +3460,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="9" customFormat="1">
+    <row r="51" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="8" t="s">
         <v>505</v>
       </c>
@@ -3461,7 +3469,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="9" customFormat="1">
+    <row r="52" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="8" t="s">
         <v>506</v>
       </c>
@@ -3470,7 +3478,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="9" customFormat="1">
+    <row r="53" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="8"/>
       <c r="C53" s="9" t="s">
         <v>510</v>
@@ -3478,7 +3486,7 @@
       <c r="D53" s="8"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7" s="9" customFormat="1">
+    <row r="54" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="8"/>
       <c r="C54" s="9" t="s">
         <v>511</v>
@@ -3486,7 +3494,7 @@
       <c r="D54" s="8"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7" s="9" customFormat="1">
+    <row r="55" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="8"/>
       <c r="C55" s="9" t="s">
         <v>512</v>
@@ -3494,7 +3502,7 @@
       <c r="D55" s="8"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7" s="9" customFormat="1">
+    <row r="56" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="8"/>
       <c r="C56" s="9" t="s">
         <v>513</v>
@@ -3502,7 +3510,7 @@
       <c r="D56" s="8"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7" s="9" customFormat="1">
+    <row r="57" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="8"/>
       <c r="C57" s="9" t="s">
         <v>514</v>
@@ -3510,7 +3518,7 @@
       <c r="D57" s="8"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7" s="9" customFormat="1">
+    <row r="58" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="8"/>
       <c r="C58" s="8" t="s">
         <v>494</v>
@@ -3520,7 +3528,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="9" customFormat="1">
+    <row r="59" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="8"/>
       <c r="C59" s="8" t="s">
         <v>495</v>
@@ -3530,7 +3538,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60"/>
       <c r="C60" s="8" t="s">
@@ -3543,7 +3551,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61"/>
       <c r="C61" s="1" t="s">
@@ -3554,7 +3562,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" t="s">
         <v>497</v>
@@ -3562,7 +3570,7 @@
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="8"/>
       <c r="C63" s="1"/>
@@ -3574,7 +3582,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="8"/>
       <c r="C64" s="1"/>
@@ -3586,7 +3594,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -3598,7 +3606,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>518</v>
       </c>
@@ -3607,7 +3615,7 @@
       <c r="D66" s="8"/>
       <c r="E66" s="9"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" t="s">
         <v>519</v>
@@ -3618,7 +3626,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" t="s">
         <v>504</v>
@@ -3629,7 +3637,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="9" customFormat="1">
+    <row r="69" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" t="s">
         <v>521</v>
@@ -3639,7 +3647,7 @@
       <c r="E69" s="1"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:7" s="9" customFormat="1">
+    <row r="70" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70"/>
       <c r="C70" s="8"/>
@@ -3647,7 +3655,7 @@
       <c r="E70" s="1"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:7" s="9" customFormat="1">
+    <row r="71" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>522</v>
       </c>
@@ -3657,7 +3665,7 @@
       <c r="E71" s="1"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="1:7" s="9" customFormat="1">
+    <row r="72" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="8" t="s">
         <v>534</v>
       </c>
@@ -3665,7 +3673,7 @@
       <c r="D72" s="8"/>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="1:7" s="9" customFormat="1">
+    <row r="73" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="8" t="s">
         <v>504</v>
       </c>
@@ -3673,7 +3681,7 @@
       <c r="D73" s="8"/>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="1:7" s="9" customFormat="1">
+    <row r="74" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="8" t="s">
         <v>535</v>
       </c>
@@ -3681,7 +3689,7 @@
       <c r="D74" s="8"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="1:7" s="9" customFormat="1">
+    <row r="75" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>523</v>
       </c>
@@ -3691,7 +3699,7 @@
       <c r="E75" s="1"/>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="1:7" s="9" customFormat="1">
+    <row r="76" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="s">
         <v>536</v>
@@ -3699,7 +3707,7 @@
       <c r="D76" s="8"/>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" s="9" customFormat="1">
+    <row r="77" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="s">
         <v>504</v>
@@ -3707,7 +3715,7 @@
       <c r="D77" s="8"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="1:7" s="9" customFormat="1">
+    <row r="78" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
         <v>537</v>
@@ -3715,7 +3723,7 @@
       <c r="D78" s="8"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:7" s="9" customFormat="1">
+    <row r="79" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="9" t="s">
@@ -3723,7 +3731,7 @@
       </c>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>524</v>
       </c>
@@ -3731,7 +3739,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" t="s">
         <v>540</v>
@@ -3739,7 +3747,7 @@
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" t="s">
         <v>541</v>
@@ -3747,7 +3755,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="8"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>542</v>
       </c>
@@ -3758,7 +3766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" t="s">
         <v>543</v>
@@ -3769,7 +3777,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" t="s">
         <v>544</v>
@@ -3777,7 +3785,7 @@
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86"/>
       <c r="C86" s="8" t="s">
@@ -3788,7 +3796,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87"/>
       <c r="C87" s="8" t="s">
@@ -3799,7 +3807,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88"/>
       <c r="C88" s="8" t="s">
@@ -3810,7 +3818,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89"/>
       <c r="C89" s="8" t="s">
@@ -3821,7 +3829,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" t="s">
         <v>549</v>
@@ -3829,7 +3837,7 @@
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>550</v>
       </c>
@@ -3837,7 +3845,7 @@
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" t="s">
         <v>424</v>
@@ -3845,7 +3853,7 @@
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" t="s">
         <v>551</v>
@@ -3853,7 +3861,7 @@
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
     </row>
-    <row r="94" spans="1:7" s="9" customFormat="1">
+    <row r="94" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="8" t="s">
         <v>553</v>
       </c>
@@ -3861,7 +3869,7 @@
       <c r="D94" s="8"/>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:7" s="9" customFormat="1">
+    <row r="95" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -3872,7 +3880,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="9" customFormat="1">
+    <row r="96" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -3883,7 +3891,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="9" customFormat="1">
+    <row r="97" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -3894,7 +3902,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="9" customFormat="1">
+    <row r="98" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -3905,7 +3913,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>554</v>
       </c>
@@ -3914,7 +3922,7 @@
       <c r="D99" s="8"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" t="s">
         <v>557</v>
@@ -3925,7 +3933,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" t="s">
         <v>558</v>
@@ -3933,7 +3941,7 @@
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102"/>
       <c r="C102" s="8" t="s">
@@ -3944,7 +3952,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>555</v>
       </c>
@@ -3952,7 +3960,7 @@
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="9"/>
       <c r="B104" s="8" t="s">
         <v>563</v>
@@ -3964,7 +3972,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" t="s">
         <v>426</v>
@@ -3975,7 +3983,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" t="s">
         <v>564</v>
@@ -3983,7 +3991,7 @@
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="B107"/>
       <c r="C107" s="8"/>
@@ -3995,7 +4003,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>556</v>
       </c>
@@ -4003,7 +4011,7 @@
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
     </row>
-    <row r="109" spans="1:7" s="9" customFormat="1">
+    <row r="109" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="8" t="s">
         <v>572</v>
       </c>
@@ -4013,7 +4021,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" t="s">
         <v>569</v>
@@ -4024,7 +4032,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" t="s">
         <v>426</v>
@@ -4035,7 +4043,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>574</v>
       </c>
@@ -4043,7 +4051,7 @@
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" t="s">
         <v>424</v>
@@ -4054,7 +4062,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" t="s">
         <v>575</v>
@@ -4065,7 +4073,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="9" customFormat="1">
+    <row r="115" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" t="s">
         <v>426</v>
@@ -4077,7 +4085,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" t="s">
         <v>579</v>
@@ -4085,7 +4093,7 @@
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="C117" s="9" t="s">
         <v>580</v>
@@ -4094,7 +4102,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="C118" s="9" t="s">
         <v>581</v>
@@ -4103,7 +4111,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="9" customFormat="1">
+    <row r="119" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C119" s="9" t="s">
         <v>591</v>
       </c>
@@ -4111,7 +4119,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120"/>
       <c r="C120" s="8" t="s">
@@ -4122,7 +4130,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121"/>
       <c r="C121" s="8" t="s">
@@ -4133,7 +4141,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122"/>
       <c r="C122" s="8" t="s">
@@ -4144,7 +4152,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="123" spans="1:7" s="9" customFormat="1">
+    <row r="123" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123"/>
       <c r="C123" s="8" t="s">
@@ -4156,7 +4164,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124"/>
       <c r="C124" s="8" t="s">
@@ -4167,7 +4175,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125"/>
       <c r="C125" s="8" t="s">
@@ -4178,7 +4186,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>598</v>
       </c>
@@ -4189,7 +4197,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" t="s">
         <v>599</v>
@@ -4200,7 +4208,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128" t="s">
         <v>600</v>
@@ -4213,7 +4221,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>603</v>
       </c>
@@ -4221,7 +4229,7 @@
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" t="s">
         <v>424</v>
@@ -4229,7 +4237,7 @@
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
         <v>539</v>
@@ -4237,255 +4245,255 @@
       <c r="E131"/>
       <c r="F131" s="8"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
     </row>
-    <row r="140" spans="1:7" s="9" customFormat="1">
+    <row r="140" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
       <c r="G140" s="7"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150"/>
       <c r="C150" s="1"/>
       <c r="D150" s="8"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151"/>
       <c r="C151" s="1"/>
       <c r="D151" s="8"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152"/>
       <c r="C152" s="1"/>
       <c r="D152" s="8"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153"/>
       <c r="C153" s="1"/>
       <c r="D153" s="8"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154"/>
       <c r="C154" s="1"/>
       <c r="D154" s="8"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155"/>
       <c r="C155" s="1"/>
       <c r="D155" s="8"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156"/>
       <c r="C156" s="1"/>
       <c r="D156" s="8"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157"/>
       <c r="C157" s="1"/>
       <c r="D157" s="8"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158"/>
       <c r="C158" s="1"/>
       <c r="D158" s="8"/>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159"/>
       <c r="C159" s="1"/>
       <c r="D159" s="8"/>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160"/>
       <c r="C160" s="1"/>
       <c r="D160" s="8"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161"/>
       <c r="C161" s="1"/>
       <c r="D161" s="8"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162"/>
       <c r="C162" s="1"/>
       <c r="D162" s="8"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
     </row>
-    <row r="169" spans="1:7" s="9" customFormat="1">
+    <row r="169" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
       <c r="G169" s="7"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170"/>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174"/>
       <c r="C174" s="8"/>
@@ -4502,22 +4510,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.9140625" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -4558,7 +4566,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>204</v>
       </c>
@@ -4569,7 +4577,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>206</v>
       </c>
@@ -4580,7 +4588,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="9" customFormat="1">
+    <row r="4" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>300</v>
       </c>
@@ -4588,7 +4596,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1">
+    <row r="5" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>301</v>
       </c>
@@ -4596,7 +4604,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1">
+    <row r="6" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>302</v>
       </c>
@@ -4604,7 +4612,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1">
+    <row r="7" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>364</v>
       </c>
@@ -4615,7 +4623,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1">
+    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>365</v>
       </c>
@@ -4626,7 +4634,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1">
+    <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>307</v>
       </c>
@@ -4637,7 +4645,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1">
+    <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>312</v>
       </c>
@@ -4648,7 +4656,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="9" customFormat="1">
+    <row r="11" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>628</v>
       </c>
@@ -4659,7 +4667,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1">
+    <row r="12" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>314</v>
       </c>
@@ -4670,7 +4678,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1">
+    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>218</v>
       </c>
@@ -4681,7 +4689,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="9" customFormat="1">
+    <row r="14" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>316</v>
       </c>
@@ -4692,7 +4700,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1">
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>231</v>
       </c>
@@ -4703,7 +4711,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1">
+    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>222</v>
       </c>
@@ -4714,7 +4722,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1">
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>226</v>
       </c>
@@ -4725,7 +4733,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1">
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>229</v>
       </c>
@@ -4736,7 +4744,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1">
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>336</v>
       </c>
@@ -4747,13 +4755,13 @@
         <v>335</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C21" s="9"/>
       <c r="F21" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
         <v>337</v>
       </c>
@@ -4762,13 +4770,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C23" s="9"/>
       <c r="F23" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>338</v>
       </c>
@@ -4777,7 +4785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
         <v>339</v>
       </c>
@@ -4786,7 +4794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>340</v>
       </c>
@@ -4795,7 +4803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
         <v>341</v>
       </c>
@@ -4804,7 +4812,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
         <v>342</v>
       </c>
@@ -4813,7 +4821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
         <v>343</v>
       </c>
@@ -4822,7 +4830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
         <v>344</v>
       </c>
@@ -4831,7 +4839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
         <v>345</v>
       </c>
@@ -4840,7 +4848,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
         <v>346</v>
       </c>
@@ -4849,7 +4857,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>347</v>
       </c>
@@ -4858,7 +4866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="8" t="s">
         <v>348</v>
@@ -4868,7 +4876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
         <v>349</v>
@@ -4878,7 +4886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
         <v>350</v>
       </c>
@@ -4887,366 +4895,366 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C37" s="9"/>
       <c r="F37" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C38" s="9"/>
       <c r="F38" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C39" s="9"/>
       <c r="F39" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C40" s="9"/>
       <c r="F40" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C41" s="9"/>
       <c r="F41" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C42" s="9"/>
       <c r="F42" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C43" s="9"/>
       <c r="F43" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C44" s="9"/>
       <c r="F44" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C45" s="9"/>
       <c r="F45" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C46" s="9"/>
       <c r="F46" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C47" s="9"/>
       <c r="F47" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C48" s="9"/>
       <c r="F48" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="3:6">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="9"/>
       <c r="F49" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="3:6">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="9"/>
       <c r="F50" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="3:6">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="9"/>
       <c r="F51" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="3:6">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="9"/>
       <c r="F52" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="3:6">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="9"/>
       <c r="F53" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="3:6">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="9"/>
       <c r="F54" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="3:6">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="9"/>
       <c r="F55" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="3:6">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="9"/>
       <c r="F56" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="3:6">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="9"/>
       <c r="F57" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="3:6">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" s="9"/>
       <c r="F58" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="3:6">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" s="9"/>
       <c r="F59" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="3:6">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="9"/>
       <c r="F60" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="3:6">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="9"/>
       <c r="F61" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="3:6">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="9"/>
       <c r="F62" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="3:6">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="9"/>
       <c r="F63" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="3:6">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" s="9"/>
       <c r="F64" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="3:6">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C65" s="9"/>
       <c r="F65" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="3:6">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C66" s="9"/>
       <c r="F66" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="3:6">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C67" s="9"/>
       <c r="F67" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="3:6">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C68" s="9"/>
       <c r="F68" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="3:6">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C69" s="9"/>
       <c r="F69" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="3:6">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C70" s="9"/>
       <c r="F70" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="3:6">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C71" s="9"/>
       <c r="F71" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="3:6">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C72" s="9"/>
       <c r="F72" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="3:6">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C73" s="9"/>
       <c r="F73" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="3:6">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C74" s="9"/>
       <c r="F74" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="3:6">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C75" s="9"/>
       <c r="F75" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="3:6">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C76" s="9"/>
       <c r="F76" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="3:6">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C77" s="9"/>
       <c r="F77" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="3:6">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" s="9"/>
       <c r="F78" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="3:6">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C79" s="9"/>
       <c r="F79" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="3:6">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C80" s="9"/>
       <c r="F80" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="3:6">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C81" s="9"/>
       <c r="F81" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="3:6">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C82" s="9"/>
       <c r="F82" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="3:6">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C83" s="9"/>
       <c r="F83" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="3:6">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C84" s="9"/>
       <c r="F84" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="85" spans="3:6">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C85" s="9"/>
       <c r="F85" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="86" spans="3:6">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C86" s="9"/>
       <c r="F86" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="3:6">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C87" s="9"/>
       <c r="F87" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="3:6">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C88" s="9"/>
       <c r="F88" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="3:6">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C89" s="9"/>
       <c r="F89" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="3:6">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C90" s="9"/>
       <c r="F90" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="3:6">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F91" s="8" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="92" spans="3:6">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F92" s="8" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="93" spans="3:6">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F93" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="94" spans="3:6">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F94" s="8" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="95" spans="3:6" s="8" customFormat="1">
+    <row r="95" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F95" s="9" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="96" spans="3:6" s="8" customFormat="1">
+    <row r="96" spans="3:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F96" s="9" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="8" customFormat="1">
+    <row r="97" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F97" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>403</v>
       </c>
@@ -5254,7 +5262,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>405</v>
       </c>
@@ -5265,7 +5273,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>404</v>
       </c>
@@ -5273,7 +5281,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>406</v>
       </c>
@@ -5281,7 +5289,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>407</v>
       </c>
@@ -5289,32 +5297,32 @@
         <v>358</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F103" s="8" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F104" s="8" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F105" s="8" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F106" s="8" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F107" s="8" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F108" s="8" t="s">
         <v>402</v>
       </c>
@@ -5334,14 +5342,14 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="27.4140625" customWidth="1"/>
-    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -5361,7 +5369,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -5369,7 +5377,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>66</v>
       </c>
@@ -5380,7 +5388,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>64</v>
       </c>
@@ -5391,7 +5399,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -5399,7 +5407,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>69</v>
       </c>
@@ -5407,7 +5415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>61</v>
       </c>
@@ -5415,7 +5423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -5423,7 +5431,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>71</v>
       </c>
@@ -5431,7 +5439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>72</v>
       </c>
@@ -5439,7 +5447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -5447,7 +5455,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>77</v>
       </c>
@@ -5455,7 +5463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>76</v>
       </c>
@@ -5463,7 +5471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -5472,7 +5480,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>80</v>
       </c>
@@ -5480,7 +5488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>79</v>
       </c>
@@ -5488,7 +5496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -5496,7 +5504,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
@@ -5507,7 +5515,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
@@ -5518,7 +5526,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
@@ -5529,12 +5537,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
@@ -5545,7 +5553,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
@@ -5556,7 +5564,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
@@ -5567,7 +5575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>18</v>
       </c>
@@ -5578,7 +5586,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
@@ -5589,7 +5597,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
@@ -5600,7 +5608,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>21</v>
       </c>
@@ -5611,7 +5619,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>323</v>
       </c>
@@ -5623,7 +5631,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
         <v>324</v>
       </c>
@@ -5634,7 +5642,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
         <v>325</v>
       </c>
@@ -5645,7 +5653,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>326</v>
       </c>
@@ -5657,7 +5665,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
         <v>327</v>
       </c>
@@ -5668,7 +5676,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
         <v>328</v>
       </c>
@@ -5679,7 +5687,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>329</v>
       </c>
@@ -5688,7 +5696,7 @@
       </c>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
         <v>330</v>
       </c>
@@ -5696,7 +5704,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
         <v>331</v>
       </c>
@@ -5704,7 +5712,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>332</v>
       </c>
@@ -5713,12 +5721,12 @@
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C39" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C40" s="8" t="s">
         <v>164</v>
       </c>
@@ -5738,15 +5746,15 @@
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.58203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>237</v>
       </c>
@@ -5763,7 +5771,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>409</v>
       </c>
@@ -5773,7 +5781,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>410</v>
@@ -5785,7 +5793,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="8" t="s">
         <v>411</v>
@@ -5797,7 +5805,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>412</v>
@@ -5807,7 +5815,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
         <v>413</v>
@@ -5819,7 +5827,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" s="8" customFormat="1">
+    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>418</v>
       </c>
@@ -5827,7 +5835,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="8" customFormat="1">
+    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="8" t="s">
         <v>419</v>
@@ -5836,7 +5844,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>473</v>
       </c>
@@ -5846,7 +5854,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="8" t="s">
         <v>475</v>
@@ -5858,7 +5866,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>476</v>
@@ -5868,7 +5876,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>478</v>
       </c>
@@ -5877,7 +5885,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="8" t="s">
         <v>480</v>
@@ -5886,14 +5894,14 @@
       <c r="D13" s="8"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>481</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="8" t="s">
         <v>482</v>
@@ -5902,7 +5910,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="8" t="s">
         <v>483</v>
@@ -5911,7 +5919,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>518</v>
       </c>
@@ -5920,7 +5928,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>522</v>
@@ -5930,7 +5938,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="8" t="s">
         <v>523</v>
@@ -5940,7 +5948,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="8" t="s">
         <v>524</v>
@@ -5950,12 +5958,12 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>525</v>
       </c>
@@ -5965,7 +5973,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>526</v>
       </c>
@@ -5975,7 +5983,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="9" t="s">
         <v>527</v>
@@ -5986,13 +5994,13 @@
         <v>529</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>524</v>
       </c>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>530</v>
       </c>
@@ -6002,7 +6010,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="8" customFormat="1">
+    <row r="27" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="8" t="s">
         <v>531</v>
@@ -6012,14 +6020,14 @@
         <v>533</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>603</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="8"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
         <v>604</v>
       </c>
@@ -6028,7 +6036,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="8" t="s">
         <v>605</v>
@@ -6040,7 +6048,7 @@
       </c>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="8" t="s">
         <v>606</v>
@@ -6052,7 +6060,7 @@
       </c>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -6060,7 +6068,7 @@
       <c r="E32" s="7"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="C33" s="1"/>
       <c r="D33" s="8"/>
@@ -6068,7 +6076,7 @@
       <c r="F33" s="9"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
@@ -6078,7 +6086,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B35" s="9"/>
       <c r="C35" s="1"/>
       <c r="D35" s="8"/>
@@ -6087,7 +6095,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="9"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -6096,111 +6104,111 @@
       <c r="G36" s="7"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="7"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="7"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="7"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="7"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="7"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="7"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="7"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="7"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="9"/>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C54" s="9"/>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
     </row>
@@ -6219,17 +6227,17 @@
       <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" style="3" customWidth="1"/>
-    <col min="2" max="4" width="13.4140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="4" width="13.33203125" style="9" customWidth="1"/>
     <col min="5" max="6" width="29.33203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="7"/>
+    <col min="7" max="7" width="8.83203125" style="7"/>
     <col min="8" max="8" width="21.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="9"/>
+    <col min="9" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>235</v>
       </c>
@@ -6255,7 +6263,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>414</v>
       </c>
@@ -6263,7 +6271,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="8" t="s">
         <v>415</v>
@@ -6274,7 +6282,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="8" t="s">
         <v>416</v>
@@ -6282,7 +6290,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>417</v>
@@ -6290,7 +6298,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>419</v>
       </c>
@@ -6301,7 +6309,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="8" t="s">
         <v>424</v>
@@ -6312,7 +6320,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="8" t="s">
         <v>425</v>
@@ -6323,7 +6331,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="8" t="s">
         <v>426</v>
@@ -6334,7 +6342,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="8" t="s">
         <v>427</v>
@@ -6345,7 +6353,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
@@ -6353,7 +6361,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
@@ -6361,7 +6369,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
@@ -6369,7 +6377,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
@@ -6377,7 +6385,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>435</v>
       </c>
@@ -6387,7 +6395,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
         <v>436</v>
@@ -6397,7 +6405,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -6409,7 +6417,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -6421,7 +6429,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -6433,7 +6441,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -6445,7 +6453,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -6457,7 +6465,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="8"/>
       <c r="D22" s="8"/>
@@ -6468,7 +6476,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
         <v>443</v>
@@ -6478,7 +6486,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9" t="s">
@@ -6489,7 +6497,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9" t="s">
@@ -6500,7 +6508,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9" t="s">
@@ -6511,7 +6519,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="8" t="s">
         <v>447</v>
@@ -6521,7 +6529,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9" t="s">
@@ -6532,7 +6540,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9" t="s">
@@ -6543,7 +6551,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9" t="s">
@@ -6554,7 +6562,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9" t="s">
@@ -6565,7 +6573,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9" t="s">
@@ -6576,7 +6584,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9" t="s">
@@ -6587,7 +6595,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9" t="s">
@@ -6598,7 +6606,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9" t="s">
@@ -6609,7 +6617,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>473</v>
       </c>
@@ -6617,7 +6625,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="8" t="s">
         <v>474</v>
@@ -6625,7 +6633,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="8" t="s">
         <v>477</v>
@@ -6633,7 +6641,7 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -6645,7 +6653,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -6657,7 +6665,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="8" t="s">
         <v>484</v>
@@ -6665,7 +6673,7 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -6677,7 +6685,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -6689,7 +6697,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>487</v>
       </c>
@@ -6697,7 +6705,7 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="8" t="s">
         <v>488</v>
@@ -6705,7 +6713,7 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="8" t="s">
         <v>489</v>
@@ -6713,7 +6721,7 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="8" t="s">
         <v>490</v>
@@ -6721,7 +6729,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="8"/>
       <c r="D48" s="8"/>
@@ -6729,14 +6737,14 @@
         <v>491</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>492</v>
       </c>
       <c r="B49" s="8"/>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="8" t="s">
         <v>504</v>
@@ -6746,7 +6754,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="8" t="s">
         <v>505</v>
@@ -6756,7 +6764,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="8" t="s">
         <v>506</v>
@@ -6766,7 +6774,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="8"/>
       <c r="C53" s="9" t="s">
@@ -6774,7 +6782,7 @@
       </c>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="8"/>
       <c r="C54" s="9" t="s">
@@ -6782,7 +6790,7 @@
       </c>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9" t="s">
@@ -6790,7 +6798,7 @@
       </c>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9" t="s">
@@ -6798,7 +6806,7 @@
       </c>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9" t="s">
@@ -6806,7 +6814,7 @@
       </c>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8" t="s">
@@ -6816,7 +6824,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8" t="s">
@@ -6826,7 +6834,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8" t="s">
@@ -6836,7 +6844,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="8"/>
       <c r="C61" s="9" t="s">
@@ -6847,7 +6855,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1">
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="8" t="s">
         <v>497</v>
@@ -6855,7 +6863,7 @@
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="8"/>
       <c r="D63" s="8"/>
@@ -6866,7 +6874,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="8"/>
       <c r="D64" s="8"/>
@@ -6877,7 +6885,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -6889,7 +6897,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>518</v>
       </c>
@@ -6897,7 +6905,7 @@
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="B67" s="8" t="s">
         <v>519</v>
@@ -6908,7 +6916,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="B68" s="8" t="s">
         <v>504</v>
@@ -6918,20 +6926,20 @@
         <v>520</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="8" t="s">
         <v>521</v>
       </c>
       <c r="D69" s="8"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>522</v>
       </c>
@@ -6939,7 +6947,7 @@
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="8" t="s">
         <v>534</v>
@@ -6947,7 +6955,7 @@
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="8" t="s">
         <v>504</v>
@@ -6955,7 +6963,7 @@
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="B74" s="8" t="s">
         <v>535</v>
@@ -6963,49 +6971,49 @@
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>523</v>
       </c>
       <c r="B75" s="8"/>
       <c r="D75" s="8"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="s">
         <v>536</v>
       </c>
       <c r="D76" s="8"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="s">
         <v>504</v>
       </c>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
         <v>537</v>
       </c>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="9" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>524</v>
       </c>
       <c r="B80" s="8"/>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="8" t="s">
         <v>540</v>
@@ -7013,14 +7021,14 @@
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="B82" s="8" t="s">
         <v>541</v>
       </c>
       <c r="D82" s="8"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>542</v>
       </c>
@@ -7030,7 +7038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="B84" s="8" t="s">
         <v>543</v>
@@ -7040,7 +7048,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="B85" s="8" t="s">
         <v>626</v>
@@ -7048,7 +7056,7 @@
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8" t="s">
@@ -7059,7 +7067,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8" t="s">
@@ -7070,7 +7078,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8" t="s">
@@ -7081,7 +7089,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8" t="s">
@@ -7092,7 +7100,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="8" t="s">
         <v>549</v>
@@ -7100,7 +7108,7 @@
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>550</v>
       </c>
@@ -7108,7 +7116,7 @@
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
       <c r="B92" s="8" t="s">
         <v>424</v>
@@ -7116,7 +7124,7 @@
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="B93" s="8" t="s">
         <v>551</v>
@@ -7124,7 +7132,7 @@
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="9"/>
       <c r="B94" s="8" t="s">
         <v>553</v>
@@ -7132,7 +7140,7 @@
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="9"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -7144,7 +7152,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="9"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -7156,7 +7164,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -7168,7 +7176,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="9"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -7180,7 +7188,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>554</v>
       </c>
@@ -7189,7 +7197,7 @@
       <c r="D99" s="8"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="9"/>
       <c r="B100" s="8" t="s">
         <v>557</v>
@@ -7199,7 +7207,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="9"/>
       <c r="B101" s="8" t="s">
         <v>558</v>
@@ -7207,7 +7215,7 @@
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="9"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8" t="s">
@@ -7218,7 +7226,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>555</v>
       </c>
@@ -7226,7 +7234,7 @@
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="9"/>
       <c r="B104" s="8" t="s">
         <v>563</v>
@@ -7237,7 +7245,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="8" t="s">
         <v>426</v>
@@ -7248,7 +7256,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="B106" s="8" t="s">
         <v>564</v>
@@ -7256,7 +7264,7 @@
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -7268,7 +7276,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>556</v>
       </c>
@@ -7276,7 +7284,7 @@
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="9"/>
       <c r="B109" s="8" t="s">
         <v>572</v>
@@ -7287,7 +7295,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="8" t="s">
         <v>569</v>
@@ -7298,7 +7306,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="9"/>
       <c r="B111" s="8" t="s">
         <v>426</v>
@@ -7309,7 +7317,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>574</v>
       </c>
@@ -7317,7 +7325,7 @@
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
       <c r="B113" s="8" t="s">
         <v>424</v>
@@ -7328,7 +7336,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="9"/>
       <c r="B114" s="8" t="s">
         <v>575</v>
@@ -7339,7 +7347,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="9"/>
       <c r="B115" s="8" t="s">
         <v>426</v>
@@ -7350,7 +7358,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="9"/>
       <c r="B116" s="8" t="s">
         <v>579</v>
@@ -7358,7 +7366,7 @@
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="9"/>
       <c r="C117" s="9" t="s">
         <v>580</v>
@@ -7367,7 +7375,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="9"/>
       <c r="C118" s="9" t="s">
         <v>581</v>
@@ -7376,7 +7384,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="9"/>
       <c r="C119" s="9" t="s">
         <v>591</v>
@@ -7385,7 +7393,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="9"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8" t="s">
@@ -7396,7 +7404,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="9"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8" t="s">
@@ -7407,7 +7415,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="9"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8" t="s">
@@ -7418,7 +7426,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8" t="s">
@@ -7429,7 +7437,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="9"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8" t="s">
@@ -7440,7 +7448,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="9"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8" t="s">
@@ -7451,7 +7459,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>598</v>
       </c>
@@ -7462,7 +7470,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="9"/>
       <c r="B127" s="8" t="s">
         <v>599</v>
@@ -7473,7 +7481,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
       <c r="B128" s="8" t="s">
         <v>600</v>
@@ -7486,7 +7494,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>603</v>
       </c>
@@ -7494,7 +7502,7 @@
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="9"/>
       <c r="B130" s="8" t="s">
         <v>424</v>
@@ -7502,7 +7510,7 @@
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="9"/>
       <c r="B131" s="9" t="s">
         <v>539</v>
@@ -7510,446 +7518,446 @@
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="B132" s="8"/>
       <c r="D132" s="8"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="9"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="9"/>
       <c r="B134" s="8"/>
       <c r="D134" s="8"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="9"/>
       <c r="B135" s="8"/>
       <c r="D135" s="8"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="9"/>
       <c r="B136" s="8"/>
       <c r="D136" s="8"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="9"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="9"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="9"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="9"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="9"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="9"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="9"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="9"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="9"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="9"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="9"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="9"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="9"/>
       <c r="B149" s="8"/>
       <c r="D149" s="8"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="9"/>
       <c r="B150" s="8"/>
       <c r="D150" s="8"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="9"/>
       <c r="B151" s="8"/>
       <c r="D151" s="8"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="9"/>
       <c r="B152" s="8"/>
       <c r="D152" s="8"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="9"/>
       <c r="B153" s="8"/>
       <c r="D153" s="8"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="9"/>
       <c r="B154" s="8"/>
       <c r="D154" s="8"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="9"/>
       <c r="B155" s="8"/>
       <c r="D155" s="8"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="9"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="9"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="9"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="9"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="9"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="9"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="9"/>
       <c r="B163" s="8"/>
       <c r="D163" s="8"/>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="9"/>
       <c r="B164" s="8"/>
       <c r="D164" s="8"/>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="9"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="9"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="9"/>
       <c r="B167" s="8"/>
       <c r="D167" s="8"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="9"/>
       <c r="B168" s="8"/>
       <c r="D168" s="8"/>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="9"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="9"/>
       <c r="B170" s="8"/>
       <c r="D170" s="8"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="9"/>
       <c r="B171" s="8"/>
       <c r="D171" s="8"/>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="9"/>
       <c r="B172" s="8"/>
       <c r="D172" s="8"/>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="9"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="9"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="9"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="9"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="9"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="9"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="9"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="9"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="9"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="9"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
       <c r="G182" s="9"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="9"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="9"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="9"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="9"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="9"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="9"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="9"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="9"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="9"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="9"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="9"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="9"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="9"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="9"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="9"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="9"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="9"/>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="9"/>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="9"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
       <c r="D201" s="8"/>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="9"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
       <c r="D202" s="8"/>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="9"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
       <c r="D203" s="8"/>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="9"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
       <c r="D204" s="8"/>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="9"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
       <c r="D205" s="8"/>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="9"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
       <c r="D206" s="8"/>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="9"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
       <c r="D207" s="8"/>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="9"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
       <c r="D208" s="8"/>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -7957,257 +7965,257 @@
       <c r="E209" s="8"/>
       <c r="F209" s="8"/>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="9"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
       <c r="D210" s="8"/>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="9"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
       <c r="D211" s="8"/>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="9"/>
       <c r="E212" s="8"/>
       <c r="F212" s="8"/>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="9"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
       <c r="D213" s="8"/>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="9"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
       <c r="D214" s="8"/>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="9"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
       <c r="D215" s="8"/>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="9"/>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
       <c r="D216" s="8"/>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="9"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
       <c r="D217" s="8"/>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="9"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
       <c r="D218" s="8"/>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="9"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
       <c r="D219" s="8"/>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="9"/>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
       <c r="D220" s="8"/>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="9"/>
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
       <c r="D221" s="8"/>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="9"/>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="9"/>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="9"/>
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
       <c r="D224" s="8"/>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="9"/>
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
       <c r="D225" s="8"/>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="9"/>
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
       <c r="D226" s="8"/>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="9"/>
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
       <c r="D227" s="8"/>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="9"/>
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
       <c r="D228" s="8"/>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="9"/>
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
       <c r="D229" s="8"/>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="9"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
       <c r="D230" s="8"/>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="9"/>
       <c r="B231" s="8"/>
       <c r="D231" s="8"/>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="9"/>
       <c r="B232" s="8"/>
       <c r="D232" s="8"/>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="9"/>
       <c r="B233" s="8"/>
       <c r="D233" s="8"/>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="9"/>
       <c r="B234" s="8"/>
       <c r="D234" s="8"/>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="9"/>
       <c r="B235" s="8"/>
       <c r="D235" s="8"/>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="9"/>
       <c r="B236" s="8"/>
       <c r="D236" s="8"/>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="9"/>
       <c r="B237" s="8"/>
       <c r="D237" s="8"/>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="9"/>
       <c r="B238" s="8"/>
       <c r="D238" s="8"/>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="9"/>
       <c r="B239" s="8"/>
       <c r="D239" s="8"/>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="9"/>
       <c r="B240" s="8"/>
       <c r="D240" s="8"/>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="9"/>
       <c r="B241" s="8"/>
       <c r="D241" s="8"/>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="9"/>
       <c r="B242" s="8"/>
       <c r="D242" s="8"/>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="9"/>
       <c r="B243" s="8"/>
       <c r="D243" s="8"/>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="9"/>
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
       <c r="D244" s="8"/>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="9"/>
       <c r="B245" s="8"/>
       <c r="C245" s="8"/>
       <c r="D245" s="8"/>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="9"/>
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
       <c r="D246" s="8"/>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="9"/>
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
       <c r="D247" s="8"/>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="9"/>
       <c r="B248" s="8"/>
       <c r="C248" s="8"/>
       <c r="D248" s="8"/>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="9"/>
       <c r="B249" s="8"/>
       <c r="C249" s="8"/>
       <c r="D249" s="8"/>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="9"/>
       <c r="B250" s="8"/>
       <c r="C250" s="8"/>
       <c r="D250" s="8"/>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="9"/>
       <c r="B251" s="8"/>
       <c r="C251" s="8"/>
       <c r="D251" s="8"/>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="9"/>
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
       <c r="D252" s="8"/>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="9"/>
       <c r="B253" s="8"/>
       <c r="C253" s="8"/>
       <c r="D253" s="8"/>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="9"/>
       <c r="B254" s="8"/>
       <c r="C254" s="8"/>
       <c r="D254" s="8"/>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="9"/>
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
@@ -8227,14 +8235,14 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.9140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="41.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>237</v>
       </c>
@@ -8257,7 +8265,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>409</v>
       </c>
@@ -8268,7 +8276,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="8" t="s">
         <v>410</v>
@@ -8278,7 +8286,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="8" t="s">
         <v>411</v>
@@ -8288,7 +8296,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>412</v>
       </c>
@@ -8298,7 +8306,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="8" t="s">
         <v>413</v>
@@ -8308,7 +8316,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="8" customFormat="1">
+    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>418</v>
       </c>
@@ -8316,7 +8324,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="8" customFormat="1">
+    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="8" t="s">
         <v>419</v>
@@ -8325,14 +8333,14 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>473</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="8" t="s">
         <v>475</v>
@@ -8342,7 +8350,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>476</v>
       </c>
@@ -8352,14 +8360,14 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>478</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="8" t="s">
         <v>480</v>
@@ -8367,14 +8375,14 @@
       <c r="D13" s="8"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>481</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="8" t="s">
         <v>482</v>
@@ -8382,7 +8390,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="8" t="s">
         <v>483</v>
@@ -8390,14 +8398,14 @@
       <c r="D16" s="8"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>518</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>522</v>
       </c>
@@ -8407,7 +8415,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="8" t="s">
         <v>523</v>
@@ -8418,7 +8426,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="8" t="s">
         <v>524</v>
@@ -8429,13 +8437,13 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>522</v>
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
         <v>525</v>
       </c>
@@ -8444,7 +8452,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="8" customFormat="1">
+    <row r="23" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
         <v>526</v>
       </c>
@@ -8453,7 +8461,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="8" customFormat="1">
+    <row r="24" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
         <v>527</v>
@@ -8463,14 +8471,14 @@
         <v>529</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="8" customFormat="1">
+    <row r="25" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>524</v>
       </c>
       <c r="B25" s="9"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>530</v>
       </c>
@@ -8479,7 +8487,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="8" t="s">
         <v>531</v>
@@ -8489,14 +8497,14 @@
         <v>533</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>603</v>
       </c>
       <c r="B28" s="9"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
         <v>604</v>
       </c>
@@ -8506,7 +8514,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="8" t="s">
         <v>605</v>
@@ -8516,7 +8524,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="8" t="s">
         <v>606</v>
@@ -8526,93 +8534,93 @@
         <v>609</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="9"/>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C51" s="9"/>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C52" s="9"/>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C53" s="9"/>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C55" s="9"/>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C56" s="9"/>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C57" s="9"/>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C58" s="9"/>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C59" s="9"/>
     </row>
   </sheetData>
@@ -8625,19 +8633,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+    <sheetView topLeftCell="A142" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.9140625" customWidth="1"/>
-    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1">
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>254</v>
       </c>
@@ -8651,901 +8659,901 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="9" t="s">
         <v>248</v>
       </c>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1">
+    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1">
+    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1">
+    <row r="7" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="8" customFormat="1">
+    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="8" customFormat="1">
+    <row r="12" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="8" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="8" customFormat="1">
+    <row r="15" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="8" customFormat="1">
+    <row r="16" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="8" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="8" customFormat="1">
+    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="C18" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="8" customFormat="1">
+    <row r="19" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="C19" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="8" customFormat="1">
+    <row r="20" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="C20" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="8" customFormat="1">
+    <row r="21" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="C21" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="8" customFormat="1">
+    <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="C22" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="8" customFormat="1">
+    <row r="23" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="C23" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="8" customFormat="1">
+    <row r="24" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="C24" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="8" customFormat="1">
+    <row r="25" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="C25" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="8" customFormat="1">
+    <row r="26" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="C26" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="8" customFormat="1">
+    <row r="27" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="C27" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="8" customFormat="1">
+    <row r="28" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="C28" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="8" customFormat="1">
+    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="C29" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="8" customFormat="1">
+    <row r="30" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="C30" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="8" customFormat="1">
+    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="C31" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="8" customFormat="1">
+    <row r="32" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="C32" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="8" customFormat="1">
+    <row r="33" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="C33" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="8" customFormat="1">
+    <row r="34" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="C34" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="8" customFormat="1">
+    <row r="35" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="C35" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="8" customFormat="1">
+    <row r="36" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="C36" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="8" customFormat="1">
+    <row r="37" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="C37" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="8" customFormat="1">
+    <row r="38" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="C38" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="8" customFormat="1">
+    <row r="39" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="C39" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="8" customFormat="1">
+    <row r="40" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="C40" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="8" customFormat="1">
+    <row r="41" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="C41" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="8" customFormat="1">
+    <row r="42" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="C42" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="8" customFormat="1">
+    <row r="43" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="C43" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="8" customFormat="1">
+    <row r="44" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="C44" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="8" customFormat="1">
+    <row r="45" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="C45" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="8" customFormat="1">
+    <row r="46" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="C46" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="8" customFormat="1">
+    <row r="47" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="C47" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="8" customFormat="1">
+    <row r="48" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="C48" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="8" customFormat="1">
+    <row r="49" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="C49" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="8" customFormat="1">
+    <row r="50" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="C50" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="8" customFormat="1">
+    <row r="51" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="C51" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="8" customFormat="1">
+    <row r="52" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="C52" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="8" customFormat="1">
+    <row r="53" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="C53" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="8" customFormat="1">
+    <row r="54" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="C54" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="8" customFormat="1">
+    <row r="55" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="C55" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="8" customFormat="1">
+    <row r="56" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="C56" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="8" customFormat="1">
+    <row r="57" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="C57" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="8" customFormat="1">
+    <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="C58" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="8" customFormat="1">
+    <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="C59" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="8" customFormat="1">
+    <row r="60" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="C60" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="8" customFormat="1">
+    <row r="61" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="C61" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="8" customFormat="1">
+    <row r="62" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="C62" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="8" customFormat="1">
+    <row r="63" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="C63" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="8" customFormat="1">
+    <row r="64" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="C64" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="8" customFormat="1">
+    <row r="65" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="C65" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="8" customFormat="1">
+    <row r="66" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="C66" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="8" customFormat="1">
+    <row r="67" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="C67" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="8" customFormat="1">
+    <row r="68" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="C68" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="8" customFormat="1">
+    <row r="69" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="C69" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="8" customFormat="1">
+    <row r="70" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="C70" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="8" customFormat="1">
+    <row r="71" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="C71" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="8" customFormat="1">
+    <row r="72" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="C72" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="8" customFormat="1">
+    <row r="73" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="C73" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="8" customFormat="1">
+    <row r="74" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="C74" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="8" customFormat="1">
+    <row r="75" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="C75" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="8" customFormat="1">
+    <row r="76" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="C76" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="8" customFormat="1">
+    <row r="77" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="C77" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="8" customFormat="1">
+    <row r="78" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="C78" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="8" customFormat="1">
+    <row r="79" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="C79" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="8" customFormat="1">
+    <row r="80" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="C80" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="8" customFormat="1">
+    <row r="81" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="C81" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="8" customFormat="1">
+    <row r="82" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="C82" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="8" customFormat="1">
+    <row r="83" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="C83" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="8" customFormat="1">
+    <row r="84" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="C84" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="8" customFormat="1">
+    <row r="85" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="C85" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="8" customFormat="1">
+    <row r="86" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="C86" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="8" customFormat="1">
+    <row r="87" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="C87" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="8" customFormat="1">
+    <row r="88" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="C88" s="9" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="8" customFormat="1">
+    <row r="89" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="C89" s="9" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="8" customFormat="1">
+    <row r="90" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="C90" s="9" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="8" customFormat="1">
+    <row r="91" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="8" t="s">
         <v>361</v>
       </c>
       <c r="C91" s="9"/>
     </row>
-    <row r="92" spans="1:3" s="8" customFormat="1">
+    <row r="92" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="8" t="s">
         <v>360</v>
       </c>
       <c r="C92" s="9"/>
     </row>
-    <row r="93" spans="1:3" s="8" customFormat="1">
+    <row r="93" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="8" t="s">
         <v>279</v>
       </c>
       <c r="C93" s="9"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="102" spans="1:2" s="8" customFormat="1">
+    <row r="102" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="103" spans="1:2" s="8" customFormat="1">
+    <row r="103" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="104" spans="1:2" s="8" customFormat="1">
+    <row r="104" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="105" spans="1:2" s="8" customFormat="1">
+    <row r="105" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="106" spans="1:2" s="8" customFormat="1">
+    <row r="106" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="107" spans="1:2" s="8" customFormat="1">
+    <row r="107" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="8" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="108" spans="1:2" s="8" customFormat="1">
+    <row r="108" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="8" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="109" spans="1:2" s="8" customFormat="1">
+    <row r="109" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="110" spans="1:2" s="8" customFormat="1">
+    <row r="110" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="8" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="111" spans="1:2" s="8" customFormat="1">
+    <row r="111" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="8" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="112" spans="1:2" s="8" customFormat="1">
+    <row r="112" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="113" spans="1:3" s="8" customFormat="1">
+    <row r="113" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="C113" s="8" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="114" spans="1:3" s="8" customFormat="1">
+    <row r="114" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="C114" s="8" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="8" customFormat="1">
+    <row r="115" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="C115" s="8" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="116" spans="1:3" s="8" customFormat="1">
+    <row r="116" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="C116" s="8" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="117" spans="1:3" s="8" customFormat="1">
+    <row r="117" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="8" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="118" spans="1:3" s="8" customFormat="1">
+    <row r="118" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="C118" s="8" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="119" spans="1:3" s="8" customFormat="1">
+    <row r="119" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="C119" s="8" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="120" spans="1:3" s="8" customFormat="1">
+    <row r="120" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="C120" s="8" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="121" spans="1:3" s="8" customFormat="1">
+    <row r="121" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="C121" s="8" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="8" customFormat="1">
+    <row r="122" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="C122" s="8" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="123" spans="1:3" s="8" customFormat="1">
+    <row r="123" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="C123" s="8" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="1:3" s="8" customFormat="1">
+    <row r="124" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="C124" s="8" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="125" spans="1:3" s="8" customFormat="1">
+    <row r="125" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="C125" s="8" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="1:3" s="8" customFormat="1">
+    <row r="126" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="C126" s="8" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="127" spans="1:3" s="8" customFormat="1">
+    <row r="127" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="C127" s="8" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="8" customFormat="1">
+    <row r="128" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="8" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="129" spans="1:2" s="8" customFormat="1">
+    <row r="129" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="8" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="130" spans="1:2" s="8" customFormat="1">
+    <row r="130" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="131" spans="1:2" s="8" customFormat="1">
+    <row r="131" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="8" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="132" spans="1:2" s="8" customFormat="1">
+    <row r="132" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="8" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="133" spans="1:2" s="8" customFormat="1">
+    <row r="133" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="8" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="134" spans="1:2" s="8" customFormat="1">
+    <row r="134" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="8" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="135" spans="1:2" s="8" customFormat="1">
+    <row r="135" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="8" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="136" spans="1:2" s="8" customFormat="1">
+    <row r="136" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="137" spans="1:2" s="8" customFormat="1">
+    <row r="137" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="8" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="138" spans="1:2" s="8" customFormat="1">
+    <row r="138" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="8" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="139" spans="1:2" s="8" customFormat="1">
+    <row r="139" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="8" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="140" spans="1:2" s="8" customFormat="1">
+    <row r="140" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="141" spans="1:2" s="8" customFormat="1">
+    <row r="141" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="8" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="142" spans="1:2" s="8" customFormat="1">
+    <row r="142" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="8" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="143" spans="1:2" s="8" customFormat="1">
+    <row r="143" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="8" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="144" spans="1:2" s="8" customFormat="1">
+    <row r="144" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="8" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="8" customFormat="1">
+    <row r="145" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="8" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="8" customFormat="1">
+    <row r="150" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="8" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>166</v>
       </c>
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="1:9" s="8" customFormat="1">
+    <row r="153" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6"/>
       <c r="B153" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="6"/>
       <c r="B154" s="4" t="s">
         <v>165</v>
@@ -9555,7 +9563,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>165</v>
       </c>
@@ -9567,7 +9575,7 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="6"/>
       <c r="B156" s="1" t="s">
         <v>167</v>
@@ -9579,7 +9587,7 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="6"/>
       <c r="B157" s="1" t="s">
         <v>168</v>
@@ -9591,7 +9599,7 @@
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="6"/>
       <c r="B158" s="1" t="s">
         <v>169</v>
@@ -9603,7 +9611,7 @@
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="6"/>
       <c r="B159" s="1" t="s">
         <v>170</v>
@@ -9615,7 +9623,7 @@
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>171</v>
       </c>
@@ -9627,7 +9635,7 @@
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="6"/>
       <c r="B161" s="1" t="s">
         <v>172</v>
@@ -9639,7 +9647,7 @@
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="6"/>
       <c r="B162" s="1" t="s">
         <v>173</v>
@@ -9651,7 +9659,7 @@
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
       <c r="B163" s="1" t="s">
         <v>174</v>
@@ -9663,7 +9671,7 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="1" t="s">
         <v>175</v>
@@ -9675,7 +9683,7 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
       <c r="B165" s="1" t="s">
         <v>176</v>
@@ -9702,21 +9710,21 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>263</v>
       </c>
@@ -9730,13 +9738,13 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1"/>
-    <row r="4" spans="1:5">
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>261</v>
       </c>
@@ -9747,150 +9755,150 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="8" customFormat="1">
+    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1">
+    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="8" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="8" customFormat="1">
+    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="8" customFormat="1">
+    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="8" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="8" customFormat="1">
+    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C10" s="9" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1">
+    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1">
+    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="8" customFormat="1">
+    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C13" s="9" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="8" customFormat="1">
+    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="8" customFormat="1">
+    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="8" customFormat="1">
+    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="8" customFormat="1">
+    <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C17" s="9" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="8" customFormat="1">
+    <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="8" customFormat="1">
+    <row r="19" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="8" customFormat="1">
+    <row r="20" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="8" customFormat="1">
+    <row r="21" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C21" s="9" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="8" customFormat="1">
+    <row r="22" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C22" s="9" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="8" customFormat="1">
+    <row r="23" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="8" customFormat="1">
+    <row r="24" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>615</v>
       </c>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="1:8" s="8" customFormat="1">
+    <row r="25" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C25" s="8" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="8" customFormat="1">
+    <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="8" customFormat="1">
+    <row r="27" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
         <v>616</v>
       </c>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="1:8" s="8" customFormat="1">
+    <row r="28" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C28" s="8" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="8" customFormat="1">
+    <row r="29" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="9"/>
       <c r="C29" s="8" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="8" customFormat="1">
+    <row r="30" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="9"/>
       <c r="C30" s="8" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>268</v>
       </c>
@@ -9913,12 +9921,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>294</v>
       </c>
@@ -9926,53 +9934,53 @@
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
         <v>409</v>
       </c>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" s="9"/>
       <c r="C37" s="8" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="9"/>
       <c r="C38" s="8" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" s="8"/>
       <c r="C39" s="9" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40" s="9"/>
       <c r="C40" s="8" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B41" s="9"/>
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" s="9"/>
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B43" s="9"/>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" s="9"/>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
       <c r="C45" s="8"/>
     </row>
@@ -9990,7 +9998,7 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10005,14 +10013,14 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -10044,7 +10052,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>195</v>
       </c>
@@ -10052,7 +10060,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>197</v>
       </c>
@@ -10060,7 +10068,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="8" customFormat="1">
+    <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>297</v>
       </c>
@@ -10068,7 +10076,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>199</v>
       </c>
@@ -10076,7 +10084,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="8" customFormat="1">
+    <row r="6" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>371</v>
       </c>
@@ -10084,7 +10092,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -10092,7 +10100,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="8" customFormat="1">
+    <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>379</v>
       </c>
@@ -10100,7 +10108,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>202</v>
       </c>
@@ -10108,7 +10116,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="8" customFormat="1">
+    <row r="10" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>382</v>
       </c>
@@ -10116,7 +10124,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="8" customFormat="1">
+    <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>631</v>
       </c>
@@ -10124,7 +10132,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -10132,7 +10140,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>62</v>
       </c>
@@ -10140,7 +10148,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>67</v>
       </c>
@@ -10148,7 +10156,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>70</v>
       </c>
@@ -10156,7 +10164,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>75</v>
       </c>
@@ -10164,7 +10172,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>83</v>
       </c>
@@ -10172,7 +10180,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>85</v>
       </c>
@@ -10194,16 +10202,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="16.58203125" customWidth="1"/>
-    <col min="4" max="4" width="40.25" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="10.9140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -10244,7 +10252,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>319</v>
       </c>
@@ -10258,7 +10266,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>209</v>
       </c>
@@ -10272,7 +10280,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>213</v>
       </c>
@@ -10286,7 +10294,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1">
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>215</v>
       </c>
@@ -10300,7 +10308,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1">
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>220</v>
       </c>
@@ -10314,7 +10322,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1">
+    <row r="7" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>375</v>
       </c>
@@ -10328,7 +10336,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1">
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>309</v>
       </c>
@@ -10342,7 +10350,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1">
+    <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>370</v>
       </c>
@@ -10356,7 +10364,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>383</v>
       </c>
@@ -10370,16 +10378,16 @@
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F24" s="1"/>
     </row>
   </sheetData>
